--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H2">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I2">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J2">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3341516666666666</v>
+        <v>0.363908</v>
       </c>
       <c r="N2">
-        <v>1.002455</v>
+        <v>1.091724</v>
       </c>
       <c r="O2">
-        <v>0.02354483703663662</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P2">
-        <v>0.03467746452042096</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q2">
-        <v>0.2341099991833333</v>
+        <v>0.172033140104</v>
       </c>
       <c r="R2">
-        <v>2.10698999265</v>
+        <v>1.548298260936</v>
       </c>
       <c r="S2">
-        <v>0.0009499340806886749</v>
+        <v>0.0003665359647266461</v>
       </c>
       <c r="T2">
-        <v>0.001523115824795413</v>
+        <v>0.0005650343704967852</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H3">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I3">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J3">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,25 +623,25 @@
         <v>0.153566</v>
       </c>
       <c r="N3">
-        <v>0.4606979999999999</v>
+        <v>0.460698</v>
       </c>
       <c r="O3">
-        <v>0.01082049501783563</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="P3">
-        <v>0.01593671391696275</v>
+        <v>0.007018835164781924</v>
       </c>
       <c r="Q3">
-        <v>0.10758987526</v>
+        <v>0.07259648370800001</v>
       </c>
       <c r="R3">
-        <v>0.9683088773399999</v>
+        <v>0.6533683533720001</v>
       </c>
       <c r="S3">
-        <v>0.0004365609739141519</v>
+        <v>0.0001546749781791336</v>
       </c>
       <c r="T3">
-        <v>0.0006999779683393238</v>
+        <v>0.0002384395730231523</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H4">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I4">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J4">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.6684585</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N4">
-        <v>27.336917</v>
+        <v>0.187586</v>
       </c>
       <c r="O4">
-        <v>0.9631004721145509</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="P4">
-        <v>0.9456533902920258</v>
+        <v>0.002857913889838424</v>
       </c>
       <c r="Q4">
-        <v>9.576258709685002</v>
+        <v>0.02955967682266667</v>
       </c>
       <c r="R4">
-        <v>57.45755225811</v>
+        <v>0.266037091404</v>
       </c>
       <c r="S4">
-        <v>0.03885700972002376</v>
+        <v>6.298021796645731E-05</v>
       </c>
       <c r="T4">
-        <v>0.04153532166912104</v>
+        <v>9.708730175759621E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,51 +726,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H5">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I5">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J5">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03596566666666667</v>
+        <v>31.927516</v>
       </c>
       <c r="N5">
-        <v>0.107897</v>
+        <v>63.85503199999999</v>
       </c>
       <c r="O5">
-        <v>0.002534195830976933</v>
+        <v>0.9817315966582778</v>
       </c>
       <c r="P5">
-        <v>0.003732431270590561</v>
+        <v>0.9728454303033116</v>
       </c>
       <c r="Q5">
-        <v>0.02519790572333334</v>
+        <v>15.093350058808</v>
       </c>
       <c r="R5">
-        <v>0.22678115151</v>
+        <v>90.560100352848</v>
       </c>
       <c r="S5">
-        <v>0.0001022440284143088</v>
+        <v>0.03215808082918054</v>
       </c>
       <c r="T5">
-        <v>0.0001639371624142237</v>
+        <v>0.03304890962291942</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>11.86561333333333</v>
+        <v>0.472738</v>
       </c>
       <c r="H6">
-        <v>35.59684</v>
+        <v>1.418214</v>
       </c>
       <c r="I6">
-        <v>0.6833003453286127</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J6">
-        <v>0.7438741281663874</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3341516666666666</v>
+        <v>0.01411566666666667</v>
       </c>
       <c r="N6">
-        <v>1.002455</v>
+        <v>0.042347</v>
       </c>
       <c r="O6">
-        <v>0.02354483703663662</v>
+        <v>0.0004340392774233579</v>
       </c>
       <c r="P6">
-        <v>0.03467746452042096</v>
+        <v>0.0006451658412300904</v>
       </c>
       <c r="Q6">
-        <v>3.964914471355555</v>
+        <v>0.006673012028666668</v>
       </c>
       <c r="R6">
-        <v>35.68423024219999</v>
+        <v>0.06005710825800001</v>
       </c>
       <c r="S6">
-        <v>0.01608819527783972</v>
+        <v>1.421760307392645E-05</v>
       </c>
       <c r="T6">
-        <v>0.02579566868714897</v>
+        <v>2.191717914731871E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>35.59684</v>
       </c>
       <c r="I7">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J7">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.153566</v>
+        <v>0.363908</v>
       </c>
       <c r="N7">
-        <v>0.4606979999999999</v>
+        <v>1.091724</v>
       </c>
       <c r="O7">
-        <v>0.01082049501783563</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P7">
-        <v>0.01593671391696275</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q7">
-        <v>1.822154777146667</v>
+        <v>4.317991616906666</v>
       </c>
       <c r="R7">
-        <v>16.39939299432</v>
+        <v>38.86192455216</v>
       </c>
       <c r="S7">
-        <v>0.007393647982313621</v>
+        <v>0.009199967064646144</v>
       </c>
       <c r="T7">
-        <v>0.0118549091708178</v>
+        <v>0.01418223066552353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>35.59684</v>
       </c>
       <c r="I8">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J8">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>13.6684585</v>
+        <v>0.153566</v>
       </c>
       <c r="N8">
-        <v>27.336917</v>
+        <v>0.460698</v>
       </c>
       <c r="O8">
-        <v>0.9631004721145509</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="P8">
-        <v>0.9456533902920258</v>
+        <v>0.007018835164781924</v>
       </c>
       <c r="Q8">
-        <v>162.1846434237133</v>
+        <v>1.822154777146667</v>
       </c>
       <c r="R8">
-        <v>973.10786054228</v>
+        <v>16.39939299432</v>
       </c>
       <c r="S8">
-        <v>0.6580868851820225</v>
+        <v>0.003882305808746854</v>
       </c>
       <c r="T8">
-        <v>0.7034470912510692</v>
+        <v>0.005984777565708328</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>35.59684</v>
       </c>
       <c r="I9">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J9">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03596566666666667</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N9">
-        <v>0.107897</v>
+        <v>0.187586</v>
       </c>
       <c r="O9">
-        <v>0.002534195830976933</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="P9">
-        <v>0.003732431270590561</v>
+        <v>0.002857913889838424</v>
       </c>
       <c r="Q9">
-        <v>0.4267546939422223</v>
+        <v>0.7419409809155556</v>
       </c>
       <c r="R9">
-        <v>3.84079224548</v>
+        <v>6.67746882824</v>
       </c>
       <c r="S9">
-        <v>0.001731616886436869</v>
+        <v>0.001580788754107001</v>
       </c>
       <c r="T9">
-        <v>0.002776459057351515</v>
+        <v>0.002436868587319594</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4571846666666666</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H10">
-        <v>1.371554</v>
+        <v>35.59684</v>
       </c>
       <c r="I10">
-        <v>0.02632771116303695</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J10">
-        <v>0.02866163221182333</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3341516666666666</v>
+        <v>31.927516</v>
       </c>
       <c r="N10">
-        <v>1.002455</v>
+        <v>63.85503199999999</v>
       </c>
       <c r="O10">
-        <v>0.02354483703663662</v>
+        <v>0.9817315966582778</v>
       </c>
       <c r="P10">
-        <v>0.03467746452042096</v>
+        <v>0.9728454303033116</v>
       </c>
       <c r="Q10">
-        <v>0.1527690183411111</v>
+        <v>378.8395595498133</v>
       </c>
       <c r="R10">
-        <v>1.37492116507</v>
+        <v>2273.03735729888</v>
       </c>
       <c r="S10">
-        <v>0.0006198816688813437</v>
+        <v>0.8071603142991163</v>
       </c>
       <c r="T10">
-        <v>0.0009939127341228582</v>
+        <v>0.8295199088582702</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4571846666666666</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H11">
-        <v>1.371554</v>
+        <v>35.59684</v>
       </c>
       <c r="I11">
-        <v>0.02632771116303695</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J11">
-        <v>0.02866163221182333</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.153566</v>
+        <v>0.01411566666666667</v>
       </c>
       <c r="N11">
-        <v>0.4606979999999999</v>
+        <v>0.042347</v>
       </c>
       <c r="O11">
-        <v>0.01082049501783563</v>
+        <v>0.0004340392774233579</v>
       </c>
       <c r="P11">
-        <v>0.01593671391696275</v>
+        <v>0.0006451658412300904</v>
       </c>
       <c r="Q11">
-        <v>0.07020802052133332</v>
+        <v>0.1674910426088889</v>
       </c>
       <c r="R11">
-        <v>0.6318721846919999</v>
+        <v>1.50741938348</v>
       </c>
       <c r="S11">
-        <v>0.0002848788674706568</v>
+        <v>0.0003568585148687491</v>
       </c>
       <c r="T11">
-        <v>0.0004567722329530328</v>
+        <v>0.0005501160751187342</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H12">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I12">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J12">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.6684585</v>
+        <v>0.363908</v>
       </c>
       <c r="N12">
-        <v>27.336917</v>
+        <v>1.091724</v>
       </c>
       <c r="O12">
-        <v>0.9631004721145509</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P12">
-        <v>0.9456533902920258</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q12">
-        <v>6.249009643169666</v>
+        <v>0.13789201936</v>
       </c>
       <c r="R12">
-        <v>37.494057859018</v>
+        <v>1.24102817424</v>
       </c>
       <c r="S12">
-        <v>0.02535623105081641</v>
+        <v>0.0002937944649133785</v>
       </c>
       <c r="T12">
-        <v>0.02710396967241387</v>
+        <v>0.0004528995419632902</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H13">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I13">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J13">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,33 +1240,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03596566666666667</v>
+        <v>0.153566</v>
       </c>
       <c r="N13">
-        <v>0.107897</v>
+        <v>0.460698</v>
       </c>
       <c r="O13">
-        <v>0.002534195830976933</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="P13">
-        <v>0.003732431270590561</v>
+        <v>0.007018835164781924</v>
       </c>
       <c r="Q13">
-        <v>0.01644295132644444</v>
+        <v>0.05818922872</v>
       </c>
       <c r="R13">
-        <v>0.147986561938</v>
+        <v>0.52370305848</v>
       </c>
       <c r="S13">
-        <v>6.67195758685331E-05</v>
+        <v>0.0001239787001079611</v>
       </c>
       <c r="T13">
-        <v>0.0001069775723335751</v>
+        <v>0.0001911196540365549</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>4.2421405</v>
+        <v>0.37892</v>
       </c>
       <c r="H14">
-        <v>8.484280999999999</v>
+        <v>1.13676</v>
       </c>
       <c r="I14">
-        <v>0.2442904540332086</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J14">
-        <v>0.1772976795691316</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.3341516666666666</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N14">
-        <v>1.002455</v>
+        <v>0.187586</v>
       </c>
       <c r="O14">
-        <v>0.02354483703663662</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="P14">
-        <v>0.03467746452042096</v>
+        <v>0.002857913889838424</v>
       </c>
       <c r="Q14">
-        <v>1.417518318309166</v>
+        <v>0.02369336237333333</v>
       </c>
       <c r="R14">
-        <v>8.505109909854998</v>
+        <v>0.21324026136</v>
       </c>
       <c r="S14">
-        <v>0.005751778929817866</v>
+        <v>5.048137486694533E-05</v>
       </c>
       <c r="T14">
-        <v>0.006148233992811524</v>
+        <v>7.781968105375145E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>4.2421405</v>
+        <v>0.37892</v>
       </c>
       <c r="H15">
-        <v>8.484280999999999</v>
+        <v>1.13676</v>
       </c>
       <c r="I15">
-        <v>0.2442904540332086</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J15">
-        <v>0.1772976795691316</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.153566</v>
+        <v>31.927516</v>
       </c>
       <c r="N15">
-        <v>0.4606979999999999</v>
+        <v>63.85503199999999</v>
       </c>
       <c r="O15">
-        <v>0.01082049501783563</v>
+        <v>0.9817315966582778</v>
       </c>
       <c r="P15">
-        <v>0.01593671391696275</v>
+        <v>0.9728454303033116</v>
       </c>
       <c r="Q15">
-        <v>0.6514485480229999</v>
+        <v>12.09797436272</v>
       </c>
       <c r="R15">
-        <v>3.908691288137999</v>
+        <v>72.58784617632</v>
       </c>
       <c r="S15">
-        <v>0.002643343640771138</v>
+        <v>0.0257760958243109</v>
       </c>
       <c r="T15">
-        <v>0.002825542397434581</v>
+        <v>0.02649013371955845</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>4.2421405</v>
+        <v>0.37892</v>
       </c>
       <c r="H16">
-        <v>8.484280999999999</v>
+        <v>1.13676</v>
       </c>
       <c r="I16">
-        <v>0.2442904540332086</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J16">
-        <v>0.1772976795691316</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>13.6684585</v>
+        <v>0.01411566666666667</v>
       </c>
       <c r="N16">
-        <v>27.336917</v>
+        <v>0.042347</v>
       </c>
       <c r="O16">
-        <v>0.9631004721145509</v>
+        <v>0.0004340392774233579</v>
       </c>
       <c r="P16">
-        <v>0.9456533902920258</v>
+        <v>0.0006451658412300904</v>
       </c>
       <c r="Q16">
-        <v>57.98352137541924</v>
+        <v>0.005348708413333333</v>
       </c>
       <c r="R16">
-        <v>231.934085501677</v>
+        <v>0.04813837572</v>
       </c>
       <c r="S16">
-        <v>0.2352762516124612</v>
+        <v>1.139602519106188E-05</v>
       </c>
       <c r="T16">
-        <v>0.1676621517754585</v>
+        <v>1.756756918737653E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H17">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I17">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J17">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.03596566666666667</v>
+        <v>0.363908</v>
       </c>
       <c r="N17">
-        <v>0.107897</v>
+        <v>1.091724</v>
       </c>
       <c r="O17">
-        <v>0.002534195830976933</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P17">
-        <v>0.003732431270590561</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q17">
-        <v>0.1525714111761667</v>
+        <v>0.563459499156</v>
       </c>
       <c r="R17">
-        <v>0.915428467057</v>
+        <v>3.380756994936</v>
       </c>
       <c r="S17">
-        <v>0.0006190798501584194</v>
+        <v>0.001200513871819603</v>
       </c>
       <c r="T17">
-        <v>0.0006617514034269719</v>
+        <v>0.00123376997096248</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.548357</v>
+      </c>
+      <c r="H18">
+        <v>3.096714</v>
+      </c>
+      <c r="I18">
+        <v>0.1072872076222874</v>
+      </c>
+      <c r="J18">
+        <v>0.0741775733180209</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G18">
-        <v>0.09960200000000001</v>
-      </c>
-      <c r="H18">
-        <v>0.298806</v>
-      </c>
-      <c r="I18">
-        <v>0.005735740672100711</v>
-      </c>
-      <c r="J18">
-        <v>0.006244207427987584</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M18">
-        <v>0.3341516666666666</v>
+        <v>0.153566</v>
       </c>
       <c r="N18">
-        <v>1.002455</v>
+        <v>0.460698</v>
       </c>
       <c r="O18">
-        <v>0.02354483703663662</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="P18">
-        <v>0.03467746452042096</v>
+        <v>0.007018835164781924</v>
       </c>
       <c r="Q18">
-        <v>0.03328217430333334</v>
+        <v>0.237774991062</v>
       </c>
       <c r="R18">
-        <v>0.29953956873</v>
+        <v>1.426649946372</v>
       </c>
       <c r="S18">
-        <v>0.0001350470794090198</v>
+        <v>0.00050660637644638</v>
       </c>
       <c r="T18">
-        <v>0.0002165332815421885</v>
+        <v>0.0005206401600427145</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,25 +1585,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.09960200000000001</v>
+        <v>1.548357</v>
       </c>
       <c r="H19">
-        <v>0.298806</v>
+        <v>3.096714</v>
       </c>
       <c r="I19">
-        <v>0.005735740672100711</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J19">
-        <v>0.006244207427987584</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,33 +1612,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.153566</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N19">
-        <v>0.4606979999999999</v>
+        <v>0.187586</v>
       </c>
       <c r="O19">
-        <v>0.01082049501783563</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="P19">
-        <v>0.01593671391696275</v>
+        <v>0.002857913889838424</v>
       </c>
       <c r="Q19">
-        <v>0.015295480732</v>
+        <v>0.09681669873400001</v>
       </c>
       <c r="R19">
-        <v>0.137659326588</v>
+        <v>0.580900192404</v>
       </c>
       <c r="S19">
-        <v>6.206355336606294E-05</v>
+        <v>0.0002062788719119046</v>
       </c>
       <c r="T19">
-        <v>9.951214741801193E-05</v>
+        <v>0.00021199311710008</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.09960200000000001</v>
+        <v>1.548357</v>
       </c>
       <c r="H20">
-        <v>0.298806</v>
+        <v>3.096714</v>
       </c>
       <c r="I20">
-        <v>0.005735740672100711</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J20">
-        <v>0.006244207427987584</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.6684585</v>
+        <v>31.927516</v>
       </c>
       <c r="N20">
-        <v>27.336917</v>
+        <v>63.85503199999999</v>
       </c>
       <c r="O20">
-        <v>0.9631004721145509</v>
+        <v>0.9817315966582778</v>
       </c>
       <c r="P20">
-        <v>0.9456533902920258</v>
+        <v>0.9728454303033116</v>
       </c>
       <c r="Q20">
-        <v>1.361405803517</v>
+        <v>49.435192891212</v>
       </c>
       <c r="R20">
-        <v>8.168434821102</v>
+        <v>197.740771564848</v>
       </c>
       <c r="S20">
-        <v>0.005524094549226826</v>
+        <v>0.1053272416400363</v>
       </c>
       <c r="T20">
-        <v>0.00590485592396311</v>
+        <v>0.07216331323342548</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.09960200000000001</v>
+        <v>1.548357</v>
       </c>
       <c r="H21">
-        <v>0.298806</v>
+        <v>3.096714</v>
       </c>
       <c r="I21">
-        <v>0.005735740672100711</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J21">
-        <v>0.006244207427987584</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.03596566666666667</v>
+        <v>0.01411566666666667</v>
       </c>
       <c r="N21">
-        <v>0.107897</v>
+        <v>0.042347</v>
       </c>
       <c r="O21">
-        <v>0.002534195830976933</v>
+        <v>0.0004340392774233579</v>
       </c>
       <c r="P21">
-        <v>0.003732431270590561</v>
+        <v>0.0006451658412300904</v>
       </c>
       <c r="Q21">
-        <v>0.003582252331333334</v>
+        <v>0.021856091293</v>
       </c>
       <c r="R21">
-        <v>0.032240270982</v>
+        <v>0.131136547758</v>
       </c>
       <c r="S21">
-        <v>1.453549009880246E-05</v>
+        <v>4.656686207314738E-05</v>
       </c>
       <c r="T21">
-        <v>2.330607506427472E-05</v>
+        <v>4.785683649012766E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.16626</v>
+      </c>
+      <c r="H22">
+        <v>0.49878</v>
+      </c>
+      <c r="I22">
+        <v>0.01152032195371061</v>
+      </c>
+      <c r="J22">
+        <v>0.01194759671689489</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.363908</v>
+      </c>
+      <c r="N22">
+        <v>1.091724</v>
+      </c>
+      <c r="O22">
+        <v>0.01118972054940699</v>
+      </c>
+      <c r="P22">
+        <v>0.01663265480083782</v>
+      </c>
+      <c r="Q22">
+        <v>0.06050334407999999</v>
+      </c>
+      <c r="R22">
+        <v>0.54453009672</v>
+      </c>
+      <c r="S22">
+        <v>0.0001289091833012201</v>
+      </c>
+      <c r="T22">
+        <v>0.000198720251891736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.16626</v>
+      </c>
+      <c r="H23">
+        <v>0.49878</v>
+      </c>
+      <c r="I23">
+        <v>0.01152032195371061</v>
+      </c>
+      <c r="J23">
+        <v>0.01194759671689489</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.153566</v>
+      </c>
+      <c r="N23">
+        <v>0.460698</v>
+      </c>
+      <c r="O23">
+        <v>0.004721964413781051</v>
+      </c>
+      <c r="P23">
+        <v>0.007018835164781924</v>
+      </c>
+      <c r="Q23">
+        <v>0.02553188316</v>
+      </c>
+      <c r="R23">
+        <v>0.22978694844</v>
+      </c>
+      <c r="S23">
+        <v>5.439855030072207E-05</v>
+      </c>
+      <c r="T23">
+        <v>8.385821197117496E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.16626</v>
+      </c>
+      <c r="H24">
+        <v>0.49878</v>
+      </c>
+      <c r="I24">
+        <v>0.01152032195371061</v>
+      </c>
+      <c r="J24">
+        <v>0.01194759671689489</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.187586</v>
+      </c>
+      <c r="O24">
+        <v>0.001922679101110775</v>
+      </c>
+      <c r="P24">
+        <v>0.002857913889838424</v>
+      </c>
+      <c r="Q24">
+        <v>0.01039601612</v>
+      </c>
+      <c r="R24">
+        <v>0.09356414508000001</v>
+      </c>
+      <c r="S24">
+        <v>2.214988225846704E-05</v>
+      </c>
+      <c r="T24">
+        <v>3.414520260740187E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.16626</v>
+      </c>
+      <c r="H25">
+        <v>0.49878</v>
+      </c>
+      <c r="I25">
+        <v>0.01152032195371061</v>
+      </c>
+      <c r="J25">
+        <v>0.01194759671689489</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>31.927516</v>
+      </c>
+      <c r="N25">
+        <v>63.85503199999999</v>
+      </c>
+      <c r="O25">
+        <v>0.9817315966582778</v>
+      </c>
+      <c r="P25">
+        <v>0.9728454303033116</v>
+      </c>
+      <c r="Q25">
+        <v>5.30826881016</v>
+      </c>
+      <c r="R25">
+        <v>31.84961286096</v>
+      </c>
+      <c r="S25">
+        <v>0.01130986406563373</v>
+      </c>
+      <c r="T25">
+        <v>0.01162316486913805</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.16626</v>
+      </c>
+      <c r="H26">
+        <v>0.49878</v>
+      </c>
+      <c r="I26">
+        <v>0.01152032195371061</v>
+      </c>
+      <c r="J26">
+        <v>0.01194759671689489</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.01411566666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.042347</v>
+      </c>
+      <c r="O26">
+        <v>0.0004340392774233579</v>
+      </c>
+      <c r="P26">
+        <v>0.0006451658412300904</v>
+      </c>
+      <c r="Q26">
+        <v>0.00234687074</v>
+      </c>
+      <c r="R26">
+        <v>0.02112183666</v>
+      </c>
+      <c r="S26">
+        <v>5.000272216472999E-06</v>
+      </c>
+      <c r="T26">
+        <v>7.70818128653336E-06</v>
       </c>
     </row>
   </sheetData>
